--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$62</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="302">
   <si>
     <t>Path</t>
   </si>
@@ -372,7 +372,7 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:type}
+    <t xml:space="preserve">value:type}
 </t>
   </si>
   <si>
@@ -711,14 +711,14 @@
     <t>Practitioner.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint
+    <t xml:space="preserve">ContactPoint {http://ibm.com/fhir/cdm/StructureDefinition/cdm-contact-point}
 </t>
   </si>
   <si>
-    <t>A contact detail for the practitioner (that apply to all roles)</t>
-  </si>
-  <si>
-    <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
+    <t>Details of a Technology mediated contact point (phone, fax, email, etc.)</t>
+  </si>
+  <si>
+    <t>Details for all kinds of technology mediated contact points for a person or organization, including telephone, email, etc.</t>
   </si>
   <si>
     <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and to help with identification.  These typically will have home numbers, or mobile numbers that are not role specific.</t>
@@ -727,199 +727,45 @@
     <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
   </si>
   <si>
-    <t>PRT-15, STF-10, ROL-12</t>
-  </si>
-  <si>
-    <t>./telecom</t>
-  </si>
-  <si>
-    <t>./ContactPoints</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.id</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension</t>
-  </si>
-  <si>
-    <t>contactPointCountry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {contactpoint-country}
+    <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
+    <t>XTN</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>ContactPoint</t>
+  </si>
+  <si>
+    <t>Practitioner.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address {http://ibm.com/fhir/cdm/StructureDefinition/cdm-address}
 </t>
   </si>
   <si>
-    <t>The country code as defined by the ITU. This extension is used when a system wishes to designate specific parts of a phone number</t>
-  </si>
-  <si>
-    <t>The country code as defined by the ITU. This extension is used when a system wishes to designate specific parts of a phone number (and potentially place constraints on which components must be present and how they're filled in).</t>
-  </si>
-  <si>
-    <t>The ContactPoint.value element SHOULD still be populated even if the extension is present.</t>
-  </si>
-  <si>
-    <t>contactPointExt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {contactpoint-extension}
-</t>
-  </si>
-  <si>
-    <t>The number that may be dialed within a private phone network or after successfully connecting to a private phone network.</t>
-  </si>
-  <si>
-    <t>The number that may be dialed within a private phone network or after successfully connecting to a private phone network. This extension is used when a system wishes to designate specific parts of a phone number (and potentially place constraints on which components must be present and how they're filled in).</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>XTN.3</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>./ContactPointType</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>XTN.1 (or XTN.12)</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>XTN.2 - but often indicated by field</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>./ContactPointPurpose</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>Practitioner.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address
-</t>
-  </si>
-  <si>
-    <t>Address(es) of the practitioner that are not role specific (typically home address)</t>
-  </si>
-  <si>
-    <t>Address(es) of the practitioner that are not role specific (typically home address). -Work addresses are not typically entered in this property as they are usually role dependent.</t>
-  </si>
-  <si>
-    <t>The PractitionerRole does not have an address value on it, as it is expected that the location property be used for this purpose (which has an address).</t>
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
+  </si>
+  <si>
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
+  </si>
+  <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>The home/mailing address of the practitioner is often required for employee administration purposes, and also for some rostering services where the start point (practitioners home) can be used in calculations.</t>
   </si>
   <si>
-    <t>ORC-24, STF-11, ROL-11, PRT-14</t>
-  </si>
-  <si>
-    <t>./addr</t>
-  </si>
-  <si>
-    <t>./Addresses</t>
+    <t>XAD</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
   <si>
     <t>Practitioner.gender</t>
@@ -1277,7 +1123,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM71"/>
+  <dimension ref="A1:AM62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1287,7 +1133,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.8046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1296,7 +1142,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.92578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.62109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1321,7 +1167,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="33.20703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="52.37890625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
@@ -6701,7 +6547,7 @@
         <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>216</v>
@@ -6774,19 +6620,19 @@
         <v>42</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
@@ -6794,7 +6640,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6805,7 +6651,7 @@
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
@@ -6817,16 +6663,20 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>52</v>
+        <v>226</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>121</v>
+        <v>227</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6874,28 +6724,28 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -6903,18 +6753,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -6923,21 +6773,21 @@
         <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
       </c>
@@ -6961,52 +6811,52 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>124</v>
+        <v>241</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
@@ -7014,11 +6864,9 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7036,21 +6884,21 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7098,28 +6946,28 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>40</v>
@@ -7127,11 +6975,9 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7140,7 +6986,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7152,18 +6998,18 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7211,7 +7057,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7223,16 +7069,16 @@
         <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>40</v>
@@ -7240,7 +7086,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7251,7 +7097,7 @@
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
@@ -7260,16 +7106,16 @@
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7296,13 +7142,13 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7320,28 +7166,28 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>40</v>
@@ -7349,7 +7195,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7369,23 +7215,19 @@
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>246</v>
+        <v>121</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7433,7 +7275,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>250</v>
+        <v>123</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7445,16 +7287,16 @@
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>251</v>
+        <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
@@ -7462,43 +7304,41 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>254</v>
+        <v>98</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>255</v>
+        <v>126</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7522,13 +7362,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7546,28 +7386,28 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>262</v>
+        <v>124</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>40</v>
@@ -7575,41 +7415,43 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>265</v>
+        <v>97</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7657,25 +7499,25 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
@@ -7686,7 +7528,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7697,7 +7539,7 @@
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
@@ -7706,19 +7548,21 @@
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
@@ -7766,13 +7610,13 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
@@ -7781,13 +7625,13 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>40</v>
@@ -7795,7 +7639,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7803,10 +7647,10 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
@@ -7815,23 +7659,19 @@
         <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M59" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="N59" t="s" s="2">
-        <v>280</v>
-      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>40</v>
       </c>
@@ -7855,13 +7695,13 @@
         <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>40</v>
+        <v>282</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>40</v>
@@ -7879,13 +7719,13 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
@@ -7894,10 +7734,10 @@
         <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>283</v>
@@ -7928,10 +7768,10 @@
         <v>40</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>285</v>
@@ -7966,13 +7806,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>289</v>
+        <v>40</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -8005,13 +7845,13 @@
         <v>63</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>40</v>
@@ -8019,7 +7859,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8039,21 +7879,19 @@
         <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>294</v>
+        <v>178</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
-        <v>297</v>
-      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8101,7 +7939,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8116,13 +7954,13 @@
         <v>63</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>298</v>
+        <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
@@ -8130,7 +7968,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8153,17 +7991,19 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>302</v>
+        <v>141</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="N62" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8188,13 +8028,13 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>40</v>
@@ -8212,7 +8052,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8227,1015 +8067,20 @@
         <v>63</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AM71" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM71">
+  <autoFilter ref="A1:AM62">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9245,7 +8090,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI70">
+  <conditionalFormatting sqref="A2:AI61">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>IBM Health Data Connect Common Data Model definition of what fields we currently define for a practitioner</t>
+    <t>Health Data Connect Common Data Model definition of what fields we currently define for a practitioner</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1391,44 +1391,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.70703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.62109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.91796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="52.37890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="52.3828125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="339">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -274,227 +274,231 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Practitioner.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Practitioner.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Practitioner.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Practitioner.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Practitioner.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>Practitioner.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Practitioner.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>An identifier for the person as this agent</t>
+  </si>
+  <si>
+    <t>An identifier that applies to this person in this role.</t>
+  </si>
+  <si>
+    <t>Often, specific identities are assigned for the agent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:type}
+</t>
+  </si>
+  <si>
+    <t>Slice based on entry system</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>PRD-7 (or XCN.1)</t>
+  </si>
+  <si>
+    <t>./id</t>
+  </si>
+  <si>
+    <t>./Identifiers</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Practitioner.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Practitioner.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Practitioner.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Practitioner.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Practitioner.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Practitioner.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Practitioner.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>An identifier for the person as this agent</t>
-  </si>
-  <si>
-    <t>An identifier that applies to this person in this role.</t>
-  </si>
-  <si>
-    <t>Often, specific identities are assigned for the agent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:type}
-</t>
-  </si>
-  <si>
-    <t>Slice based on entry system</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>PRD-7 (or XCN.1)</t>
-  </si>
-  <si>
-    <t>./id</t>
-  </si>
-  <si>
-    <t>./Identifiers</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2684,13 +2688,13 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2741,7 +2745,7 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2759,7 +2763,7 @@
         <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -2770,7 +2774,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2799,7 +2803,7 @@
         <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>134</v>
@@ -2840,10 +2844,10 @@
         <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>74</v>
@@ -2852,7 +2856,7 @@
         <v>149</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -2870,7 +2874,7 @@
         <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -2881,7 +2885,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2907,16 +2911,16 @@
         <v>106</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>74</v>
@@ -2941,13 +2945,13 @@
         <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>74</v>
@@ -2965,7 +2969,7 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -2983,7 +2987,7 @@
         <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -2994,7 +2998,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3017,19 +3021,19 @@
         <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -3054,11 +3058,11 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>74</v>
@@ -3076,7 +3080,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3091,10 +3095,10 @@
         <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3105,7 +3109,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3131,16 +3135,16 @@
         <v>100</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -3153,7 +3157,7 @@
         <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>74</v>
@@ -3189,7 +3193,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3204,13 +3208,13 @@
         <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
@@ -3218,7 +3222,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3241,16 +3245,16 @@
         <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3264,7 +3268,7 @@
         <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>74</v>
@@ -3300,7 +3304,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3315,13 +3319,13 @@
         <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>74</v>
@@ -3329,7 +3333,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3352,13 +3356,13 @@
         <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3409,7 +3413,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3424,13 +3428,13 @@
         <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3438,7 +3442,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3461,16 +3465,16 @@
         <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3520,7 +3524,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3535,13 +3539,13 @@
         <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>74</v>
@@ -3552,7 +3556,7 @@
         <v>142</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>74</v>
@@ -3685,13 +3689,13 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3742,7 +3746,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3760,7 +3764,7 @@
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3771,7 +3775,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3800,7 +3804,7 @@
         <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>134</v>
@@ -3841,10 +3845,10 @@
         <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>74</v>
@@ -3853,7 +3857,7 @@
         <v>149</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3871,7 +3875,7 @@
         <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -3882,7 +3886,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3908,16 +3912,16 @@
         <v>106</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -3927,7 +3931,7 @@
         <v>74</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>74</v>
@@ -3942,13 +3946,13 @@
         <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>74</v>
@@ -3966,7 +3970,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3984,7 +3988,7 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -3995,7 +3999,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4018,19 +4022,19 @@
         <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -4040,7 +4044,7 @@
         <v>74</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>74</v>
@@ -4055,13 +4059,13 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -4079,7 +4083,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4094,10 +4098,10 @@
         <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4108,7 +4112,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4134,16 +4138,16 @@
         <v>100</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4156,7 +4160,7 @@
         <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>74</v>
@@ -4192,7 +4196,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4207,13 +4211,13 @@
         <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4221,7 +4225,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4244,16 +4248,16 @@
         <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4267,7 +4271,7 @@
         <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>74</v>
@@ -4303,7 +4307,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4318,13 +4322,13 @@
         <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
@@ -4332,7 +4336,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4355,13 +4359,13 @@
         <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4412,7 +4416,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4427,13 +4431,13 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -4441,7 +4445,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4464,16 +4468,16 @@
         <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4523,7 +4527,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4538,13 +4542,13 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>74</v>
@@ -4555,7 +4559,7 @@
         <v>142</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>74</v>
@@ -4688,13 +4692,13 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4745,7 +4749,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4763,7 +4767,7 @@
         <v>74</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -4774,7 +4778,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4803,7 +4807,7 @@
         <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>134</v>
@@ -4844,10 +4848,10 @@
         <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>74</v>
@@ -4856,7 +4860,7 @@
         <v>149</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4874,7 +4878,7 @@
         <v>74</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -4885,7 +4889,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4911,16 +4915,16 @@
         <v>106</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -4930,7 +4934,7 @@
         <v>74</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>74</v>
@@ -4945,13 +4949,13 @@
         <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>74</v>
@@ -4969,7 +4973,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -4987,7 +4991,7 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
@@ -4998,7 +5002,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5021,19 +5025,19 @@
         <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -5043,7 +5047,7 @@
         <v>74</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>74</v>
@@ -5058,13 +5062,13 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -5082,7 +5086,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5097,10 +5101,10 @@
         <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -5111,7 +5115,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5137,16 +5141,16 @@
         <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>74</v>
@@ -5156,10 +5160,10 @@
         <v>74</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>74</v>
@@ -5195,7 +5199,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5210,13 +5214,13 @@
         <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5224,7 +5228,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5247,16 +5251,16 @@
         <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5270,7 +5274,7 @@
         <v>74</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>74</v>
@@ -5306,7 +5310,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5321,13 +5325,13 @@
         <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
@@ -5335,7 +5339,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5358,13 +5362,13 @@
         <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5415,7 +5419,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5430,13 +5434,13 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
@@ -5444,7 +5448,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5467,16 +5471,16 @@
         <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5526,7 +5530,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5541,13 +5545,13 @@
         <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>74</v>
@@ -5558,7 +5562,7 @@
         <v>142</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>74</v>
@@ -5691,13 +5695,13 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5748,7 +5752,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -5766,7 +5770,7 @@
         <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -5777,7 +5781,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5806,7 +5810,7 @@
         <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>134</v>
@@ -5847,10 +5851,10 @@
         <v>74</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>74</v>
@@ -5859,7 +5863,7 @@
         <v>149</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -5877,7 +5881,7 @@
         <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -5888,7 +5892,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5914,16 +5918,16 @@
         <v>106</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>74</v>
@@ -5933,7 +5937,7 @@
         <v>74</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>74</v>
@@ -5948,13 +5952,13 @@
         <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>74</v>
@@ -5972,7 +5976,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -5990,7 +5994,7 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6001,7 +6005,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6024,19 +6028,19 @@
         <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>74</v>
@@ -6046,7 +6050,7 @@
         <v>74</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>74</v>
@@ -6061,13 +6065,13 @@
         <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
@@ -6085,7 +6089,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6100,10 +6104,10 @@
         <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6114,7 +6118,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6140,16 +6144,16 @@
         <v>100</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -6162,7 +6166,7 @@
         <v>74</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>74</v>
@@ -6198,7 +6202,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6213,13 +6217,13 @@
         <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>74</v>
@@ -6227,7 +6231,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6250,16 +6254,16 @@
         <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6273,7 +6277,7 @@
         <v>74</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>74</v>
@@ -6309,7 +6313,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6324,13 +6328,13 @@
         <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>74</v>
@@ -6338,7 +6342,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6361,13 +6365,13 @@
         <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6418,7 +6422,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6433,13 +6437,13 @@
         <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
@@ -6447,7 +6451,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6470,16 +6474,16 @@
         <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6529,7 +6533,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6544,13 +6548,13 @@
         <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>74</v>
@@ -6561,7 +6565,7 @@
         <v>142</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>74</v>
@@ -6694,13 +6698,13 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6751,7 +6755,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -6769,7 +6773,7 @@
         <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
@@ -6780,7 +6784,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6809,7 +6813,7 @@
         <v>132</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>134</v>
@@ -6850,10 +6854,10 @@
         <v>74</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>74</v>
@@ -6862,7 +6866,7 @@
         <v>149</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -6880,7 +6884,7 @@
         <v>74</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
@@ -6891,7 +6895,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6917,16 +6921,16 @@
         <v>106</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -6936,7 +6940,7 @@
         <v>74</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>74</v>
@@ -6951,13 +6955,13 @@
         <v>74</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>74</v>
@@ -6975,7 +6979,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -6993,7 +6997,7 @@
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -7004,7 +7008,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7027,19 +7031,19 @@
         <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -7049,7 +7053,7 @@
         <v>74</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>74</v>
@@ -7064,13 +7068,13 @@
         <v>74</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>74</v>
@@ -7088,7 +7092,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7103,10 +7107,10 @@
         <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7117,7 +7121,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7143,16 +7147,16 @@
         <v>100</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -7165,7 +7169,7 @@
         <v>74</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>74</v>
@@ -7201,7 +7205,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7216,13 +7220,13 @@
         <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
@@ -7230,7 +7234,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7253,16 +7257,16 @@
         <v>85</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7276,7 +7280,7 @@
         <v>74</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>74</v>
@@ -7312,7 +7316,7 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7327,13 +7331,13 @@
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
@@ -7341,7 +7345,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7364,13 +7368,13 @@
         <v>85</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7421,7 +7425,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7436,13 +7440,13 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>74</v>
@@ -7450,7 +7454,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7473,16 +7477,16 @@
         <v>85</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7532,7 +7536,7 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7547,13 +7551,13 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>74</v>
@@ -7561,7 +7565,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7584,70 +7588,70 @@
         <v>85</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="Q56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="Q56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -7665,18 +7669,18 @@
         <v>74</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7699,19 +7703,19 @@
         <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
@@ -7760,7 +7764,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -7775,13 +7779,13 @@
         <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>74</v>
@@ -7789,7 +7793,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7812,19 +7816,19 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>74</v>
@@ -7873,7 +7877,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -7885,16 +7889,16 @@
         <v>96</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>74</v>
@@ -7902,7 +7906,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7925,19 +7929,19 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>74</v>
@@ -7986,7 +7990,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8001,13 +8005,13 @@
         <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>74</v>
@@ -8015,7 +8019,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8041,14 +8045,14 @@
         <v>106</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>74</v>
@@ -8073,13 +8077,13 @@
         <v>74</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>74</v>
@@ -8097,7 +8101,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8112,13 +8116,13 @@
         <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>74</v>
@@ -8126,7 +8130,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8149,17 +8153,17 @@
         <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>74</v>
@@ -8208,7 +8212,7 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8223,13 +8227,13 @@
         <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>74</v>
@@ -8237,7 +8241,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8260,17 +8264,17 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>74</v>
@@ -8319,7 +8323,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8337,10 +8341,10 @@
         <v>74</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>74</v>
@@ -8348,7 +8352,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8371,13 +8375,13 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8428,7 +8432,7 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -8443,13 +8447,13 @@
         <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>74</v>
@@ -8457,7 +8461,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8480,13 +8484,13 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8537,7 +8541,7 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -8555,7 +8559,7 @@
         <v>74</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
@@ -8566,7 +8570,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8595,7 +8599,7 @@
         <v>132</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>134</v>
@@ -8648,7 +8652,7 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -8666,7 +8670,7 @@
         <v>74</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
@@ -8677,11 +8681,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8703,10 +8707,10 @@
         <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>134</v>
@@ -8761,7 +8765,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -8790,7 +8794,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8816,14 +8820,14 @@
         <v>143</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>74</v>
@@ -8872,7 +8876,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -8890,7 +8894,7 @@
         <v>74</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>74</v>
@@ -8901,7 +8905,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8924,13 +8928,13 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8957,13 +8961,13 @@
         <v>74</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>74</v>
@@ -8981,7 +8985,7 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>84</v>
@@ -8999,10 +9003,10 @@
         <v>74</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>74</v>
@@ -9010,7 +9014,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9033,17 +9037,17 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>74</v>
@@ -9092,7 +9096,7 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9110,10 +9114,10 @@
         <v>74</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>74</v>
@@ -9121,7 +9125,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9144,13 +9148,13 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9201,7 +9205,7 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -9219,7 +9223,7 @@
         <v>74</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>
@@ -9230,7 +9234,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9253,19 +9257,19 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>74</v>
@@ -9314,7 +9318,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9329,13 +9333,13 @@
         <v>97</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-cdm-practitioner.xlsx
+++ b/StructureDefinition-cdm-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="338">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/cdm-practitioner</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-practitioner</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Health Data Connect Common Data Model definition of what fields we currently define for a practitioner</t>
+    <t>LinuxForHealth Common Data Model definition of what fields we currently define for a practitioner</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -293,7 +289,7 @@
     <t>Practitioner.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -581,7 +577,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/identifier-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -708,7 +704,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ibm.com/fhir/cdm/CodeSystem/identifier-type"/&gt;
+    &lt;system value="http://linuxforhealth.org/fhir/cdm/CodeSystem/identifier-type"/&gt;
     &lt;code value="SSRI"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -753,7 +749,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ibm.com/fhir/cdm/CodeSystem/identifier-type"/&gt;
+    &lt;system value="http://linuxforhealth.org/fhir/cdm/CodeSystem/identifier-type"/&gt;
     &lt;code value="MDI"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -826,7 +822,7 @@
     <t>Practitioner.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {http://ibm.com/fhir/cdm/StructureDefinition/cdm-contact-point}
+    <t xml:space="preserve">ContactPoint {http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-contact-point}
 </t>
   </si>
   <si>
@@ -858,7 +854,7 @@
     <t>Practitioner.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {http://ibm.com/fhir/cdm/StructureDefinition/cdm-address}
+    <t xml:space="preserve">Address {http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-address}
 </t>
   </si>
   <si>
@@ -1419,7 +1415,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.70703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1649,16 +1645,16 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>74</v>
@@ -1666,7 +1662,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1677,28 +1673,28 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1748,13 +1744,13 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>74</v>
@@ -1777,7 +1773,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1788,7 +1784,7 @@
         <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>74</v>
@@ -1800,13 +1796,13 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1857,25 +1853,25 @@
         <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>74</v>
@@ -1886,7 +1882,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1897,28 +1893,28 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1968,19 +1964,19 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>74</v>
@@ -1997,7 +1993,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2008,7 +2004,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>74</v>
@@ -2020,16 +2016,16 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2055,43 +2051,43 @@
         <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>74</v>
@@ -2108,18 +2104,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>74</v>
@@ -2131,16 +2127,16 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2190,25 +2186,25 @@
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
@@ -2219,11 +2215,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2242,16 +2238,16 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2301,7 +2297,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -2319,7 +2315,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -2330,11 +2326,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2353,16 +2349,16 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2412,7 +2408,7 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -2424,13 +2420,13 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
@@ -2441,11 +2437,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2458,25 +2454,25 @@
         <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>74</v>
@@ -2525,7 +2521,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2537,13 +2533,13 @@
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2554,7 +2550,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2562,7 +2558,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>76</v>
@@ -2574,20 +2570,20 @@
         <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>74</v>
@@ -2624,19 +2620,19 @@
         <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AB11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AB11" t="s" s="2">
+      <c r="AC11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AC11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="AE11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -2648,24 +2644,24 @@
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2676,7 +2672,7 @@
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>74</v>
@@ -2688,13 +2684,13 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2745,25 +2741,25 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -2774,11 +2770,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2797,16 +2793,16 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2844,19 +2840,19 @@
         <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AB13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AB13" t="s" s="2">
+      <c r="AC13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -2868,13 +2864,13 @@
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -2885,7 +2881,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2896,31 +2892,31 @@
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>74</v>
@@ -2945,49 +2941,49 @@
         <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE14" t="s" s="2">
+      <c r="AF14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -2998,7 +2994,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3009,31 +3005,31 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -3058,47 +3054,47 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="AK15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3109,7 +3105,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3117,34 +3113,34 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -3157,64 +3153,64 @@
         <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="T16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="AK16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
@@ -3222,7 +3218,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3230,31 +3226,31 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3268,64 +3264,64 @@
         <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="T17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>74</v>
@@ -3333,7 +3329,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3344,25 +3340,25 @@
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3413,28 +3409,28 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
+      <c r="AK18" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3442,7 +3438,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3453,28 +3449,28 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3524,28 +3520,28 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>74</v>
@@ -3553,10 +3549,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>74</v>
@@ -3566,29 +3562,29 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>74</v>
@@ -3637,7 +3633,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3649,24 +3645,24 @@
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3677,7 +3673,7 @@
         <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>74</v>
@@ -3689,13 +3685,13 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3746,25 +3742,25 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3775,11 +3771,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3798,16 +3794,16 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="L22" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3845,19 +3841,19 @@
         <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AB22" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AB22" t="s" s="2">
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3869,13 +3865,13 @@
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -3886,7 +3882,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3897,31 +3893,31 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -3931,7 +3927,7 @@
         <v>74</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>74</v>
@@ -3946,49 +3942,49 @@
         <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -3999,7 +3995,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4007,34 +4003,34 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -4044,29 +4040,29 @@
         <v>74</v>
       </c>
       <c r="R24" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="S24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4083,25 +4079,25 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4112,7 +4108,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4123,31 +4119,31 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4160,64 +4156,64 @@
         <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="T25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4225,7 +4221,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4236,28 +4232,28 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4271,64 +4267,64 @@
         <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="T26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AK26" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
@@ -4336,7 +4332,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4347,25 +4343,25 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4416,28 +4412,28 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
+      <c r="AK27" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -4445,7 +4441,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4456,28 +4452,28 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J28" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4527,28 +4523,28 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>74</v>
@@ -4556,10 +4552,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>74</v>
@@ -4569,29 +4565,29 @@
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J29" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
@@ -4640,7 +4636,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4652,24 +4648,24 @@
         <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4680,7 +4676,7 @@
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>74</v>
@@ -4692,13 +4688,13 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4749,25 +4745,25 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -4778,11 +4774,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4801,16 +4797,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="L31" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4848,19 +4844,19 @@
         <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AB31" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AB31" t="s" s="2">
+      <c r="AC31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4872,13 +4868,13 @@
         <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -4889,7 +4885,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4900,31 +4896,31 @@
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H32" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -4934,7 +4930,7 @@
         <v>74</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>74</v>
@@ -4949,49 +4945,49 @@
         <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
@@ -5002,7 +4998,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5010,34 +5006,34 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J33" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -5047,7 +5043,7 @@
         <v>74</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>74</v>
@@ -5062,14 +5058,14 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5086,25 +5082,25 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -5115,7 +5111,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5126,31 +5122,31 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>74</v>
@@ -5160,67 +5156,67 @@
         <v>74</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S34" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="T34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE34" t="s" s="2">
+      <c r="AF34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5228,7 +5224,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5239,28 +5235,28 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5274,64 +5270,64 @@
         <v>74</v>
       </c>
       <c r="S35" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="T35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE35" t="s" s="2">
+      <c r="AF35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
@@ -5339,7 +5335,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5350,25 +5346,25 @@
         <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J36" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5419,28 +5415,28 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AK36" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
@@ -5448,7 +5444,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5459,28 +5455,28 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5530,28 +5526,28 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
+      <c r="AK37" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>74</v>
@@ -5559,10 +5555,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>74</v>
@@ -5572,29 +5568,29 @@
         <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J38" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>74</v>
@@ -5643,7 +5639,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5655,24 +5651,24 @@
         <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5683,7 +5679,7 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>74</v>
@@ -5695,13 +5691,13 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5752,25 +5748,25 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -5781,11 +5777,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5804,16 +5800,16 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K40" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="L40" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5851,19 +5847,19 @@
         <v>74</v>
       </c>
       <c r="AA40" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AB40" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AB40" t="s" s="2">
+      <c r="AC40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -5875,13 +5871,13 @@
         <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -5892,7 +5888,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5903,31 +5899,31 @@
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I41" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>74</v>
@@ -5937,7 +5933,7 @@
         <v>74</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>74</v>
@@ -5952,49 +5948,49 @@
         <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="X41" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="X41" t="s" s="2">
+      <c r="Y41" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Y41" t="s" s="2">
+      <c r="Z41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE41" t="s" s="2">
+      <c r="AF41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6005,7 +6001,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6013,34 +6009,34 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F42" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J42" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>74</v>
@@ -6050,7 +6046,7 @@
         <v>74</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>74</v>
@@ -6065,14 +6061,14 @@
         <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6089,25 +6085,25 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AF42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="AK42" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6118,7 +6114,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6129,31 +6125,31 @@
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -6166,64 +6162,64 @@
         <v>74</v>
       </c>
       <c r="S43" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="T43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE43" t="s" s="2">
+      <c r="AF43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AF43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
+      <c r="AK43" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>74</v>
@@ -6231,7 +6227,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6242,28 +6238,28 @@
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6277,64 +6273,64 @@
         <v>74</v>
       </c>
       <c r="S44" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="T44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE44" t="s" s="2">
+      <c r="AF44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AF44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
+      <c r="AK44" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>74</v>
@@ -6342,7 +6338,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6353,25 +6349,25 @@
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J45" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6422,28 +6418,28 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AF45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
+      <c r="AK45" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
@@ -6451,7 +6447,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6462,28 +6458,28 @@
         <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J46" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6533,28 +6529,28 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AF46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
+      <c r="AK46" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>74</v>
@@ -6562,10 +6558,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>74</v>
@@ -6575,29 +6571,29 @@
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J47" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -6646,7 +6642,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6658,24 +6654,24 @@
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6686,7 +6682,7 @@
         <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>74</v>
@@ -6698,13 +6694,13 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6755,25 +6751,25 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
@@ -6784,11 +6780,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6807,16 +6803,16 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K49" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="L49" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6854,19 +6850,19 @@
         <v>74</v>
       </c>
       <c r="AA49" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AB49" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AB49" t="s" s="2">
+      <c r="AC49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AE49" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -6878,13 +6874,13 @@
         <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
@@ -6895,7 +6891,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6906,31 +6902,31 @@
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H50" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I50" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -6940,7 +6936,7 @@
         <v>74</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>74</v>
@@ -6955,49 +6951,49 @@
         <v>74</v>
       </c>
       <c r="W50" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="X50" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="X50" t="s" s="2">
+      <c r="Y50" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Y50" t="s" s="2">
+      <c r="Z50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE50" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE50" t="s" s="2">
+      <c r="AF50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -7008,7 +7004,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7016,34 +7012,34 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F51" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J51" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -7053,7 +7049,7 @@
         <v>74</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>74</v>
@@ -7068,14 +7064,14 @@
         <v>74</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7092,25 +7088,25 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AF51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="AK51" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7121,7 +7117,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7132,31 +7128,31 @@
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -7169,64 +7165,64 @@
         <v>74</v>
       </c>
       <c r="S52" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE52" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="T52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE52" t="s" s="2">
+      <c r="AF52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AF52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
+      <c r="AK52" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
@@ -7234,7 +7230,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7245,28 +7241,28 @@
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7280,64 +7276,64 @@
         <v>74</v>
       </c>
       <c r="S53" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="T53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE53" t="s" s="2">
+      <c r="AF53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
+      <c r="AK53" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
@@ -7345,7 +7341,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7356,25 +7352,25 @@
         <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J54" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7425,28 +7421,28 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>74</v>
@@ -7454,7 +7450,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7465,28 +7461,28 @@
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J55" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7536,28 +7532,28 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AF55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
+      <c r="AK55" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>74</v>
@@ -7565,7 +7561,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7576,111 +7572,111 @@
         <v>75</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J56" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P56" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="O56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P56" t="s" s="2">
+      <c r="Q56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="Q56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7700,22 +7696,22 @@
         <v>74</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
@@ -7764,7 +7760,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -7776,16 +7772,16 @@
         <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>74</v>
@@ -7793,7 +7789,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7816,19 +7812,19 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>74</v>
@@ -7877,7 +7873,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -7886,19 +7882,19 @@
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AJ58" t="s" s="2">
+      <c r="AK58" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>74</v>
@@ -7906,7 +7902,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7929,19 +7925,19 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>74</v>
@@ -7990,7 +7986,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -7999,19 +7995,19 @@
         <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI59" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AI59" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AJ59" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>74</v>
@@ -8019,7 +8015,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8030,29 +8026,29 @@
         <v>75</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>74</v>
@@ -8077,52 +8073,52 @@
         <v>74</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
+      <c r="AK60" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>74</v>
@@ -8130,7 +8126,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8141,29 +8137,29 @@
         <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J61" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>74</v>
@@ -8212,28 +8208,28 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>74</v>
@@ -8241,7 +8237,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8264,17 +8260,17 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>74</v>
@@ -8323,7 +8319,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8335,16 +8331,16 @@
         <v>74</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>74</v>
@@ -8352,7 +8348,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8375,13 +8371,13 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8432,7 +8428,7 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -8444,16 +8440,16 @@
         <v>74</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AK63" t="s" s="2">
+      <c r="AL63" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>74</v>
@@ -8461,7 +8457,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8472,7 +8468,7 @@
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>74</v>
@@ -8484,13 +8480,13 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8541,25 +8537,25 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
@@ -8570,11 +8566,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8593,16 +8589,16 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K65" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="L65" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8652,7 +8648,7 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -8664,13 +8660,13 @@
         <v>74</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
@@ -8681,11 +8677,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8698,25 +8694,25 @@
         <v>74</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="M66" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>74</v>
@@ -8765,7 +8761,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -8777,13 +8773,13 @@
         <v>74</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>74</v>
@@ -8794,7 +8790,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8817,17 +8813,17 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>74</v>
@@ -8876,7 +8872,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -8888,13 +8884,13 @@
         <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>74</v>
@@ -8905,7 +8901,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8913,10 +8909,10 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>74</v>
@@ -8928,13 +8924,13 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8961,52 +8957,52 @@
         <v>74</v>
       </c>
       <c r="W68" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="X68" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="X68" t="s" s="2">
+      <c r="Y68" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Y68" t="s" s="2">
+      <c r="Z68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>74</v>
@@ -9014,7 +9010,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9025,7 +9021,7 @@
         <v>75</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>74</v>
@@ -9037,17 +9033,17 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>74</v>
@@ -9096,28 +9092,28 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>74</v>
@@ -9125,7 +9121,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9136,7 +9132,7 @@
         <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>74</v>
@@ -9148,13 +9144,13 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9205,25 +9201,25 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>
@@ -9234,7 +9230,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9257,19 +9253,19 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>74</v>
@@ -9294,14 +9290,14 @@
         <v>74</v>
       </c>
       <c r="W71" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X71" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="X71" t="s" s="2">
+      <c r="Y71" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>74</v>
       </c>
@@ -9318,7 +9314,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9330,16 +9326,16 @@
         <v>74</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>74</v>
